--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\culiu\USACO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91DB24-4C28-42D4-BA7E-0F5C758ACF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5403DAC8-B21B-43D2-8E76-E7ECC161E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Silver!$A$1:$V$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="283">
   <si>
     <t>难度</t>
   </si>
@@ -1052,6 +1051,33 @@
   </si>
   <si>
     <t>字典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=668</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2016 December Contest, Silver
+Problem 3. Moocast</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向图+bfs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=644</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 US Open Contest, Silver
+Problem 3. Closing the Farm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs无向图全连接检测</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1449,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2991,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3442,70 +3468,90 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
@@ -3641,8 +3687,10 @@
     <hyperlink ref="B29" r:id="rId23" xr:uid="{82F0A351-E8EB-4C9B-AF5F-3726BABAF39C}"/>
     <hyperlink ref="B30" r:id="rId24" xr:uid="{D5D8E439-2470-47BE-8587-4C3370CB4A55}"/>
     <hyperlink ref="B31" r:id="rId25" xr:uid="{BEAD5244-45CB-450D-878E-88704AD119C3}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{C9F3C241-C00B-4E2F-8B35-266C57CE5DB0}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{94FF9DB2-3C4A-4EF7-B9C7-0A5C05CBF5C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5403DAC8-B21B-43D2-8E76-E7ECC161E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D57E0-6CD2-43DF-B697-B87D133DD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="293">
   <si>
     <t>难度</t>
   </si>
@@ -1078,6 +1078,80 @@
   </si>
   <si>
     <t>bfs无向图全连接检测</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=992</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2020 January Contest, Silver
+Problem 3. Wormhole Sort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">upper_bound + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并查集</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1159</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2021 December Contest, Silver
+Problem 2. Connecting Two Barns</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连通分量(并查集) + 二分 + 优先级队列</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://usaco.org/index.php?page=viewproblem2&amp;cpid=1206</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2022 February Contest, Silver
+Problem 1. Redistributing Gifts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs+reach[i][j] 环检测</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,6 +1196,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1166,7 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,6 +1285,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3017,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3026,7 +3123,7 @@
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.9140625" style="4" customWidth="1"/>
     <col min="5" max="6" width="12.83203125" style="4" customWidth="1"/>
     <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
     <col min="9" max="10" width="19.83203125" style="4" customWidth="1"/>
@@ -3496,20 +3593,60 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -3689,8 +3826,12 @@
     <hyperlink ref="B31" r:id="rId25" xr:uid="{BEAD5244-45CB-450D-878E-88704AD119C3}"/>
     <hyperlink ref="B32" r:id="rId26" xr:uid="{C9F3C241-C00B-4E2F-8B35-266C57CE5DB0}"/>
     <hyperlink ref="B33" r:id="rId27" xr:uid="{94FF9DB2-3C4A-4EF7-B9C7-0A5C05CBF5C0}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{F368253B-A38F-4CA5-906D-89C92C6B284E}"/>
+    <hyperlink ref="B35" r:id="rId29" xr:uid="{4591C6CD-42E3-4130-84E4-A3688C21CA2F}"/>
+    <hyperlink ref="B36" r:id="rId30" xr:uid="{40780C72-4D5B-4A8C-880A-939C8B86A688}"/>
+    <hyperlink ref="B37" r:id="rId31" xr:uid="{D9BDC97D-3688-47AE-B0FA-221E5A448086}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D57E0-6CD2-43DF-B697-B87D133DD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13FEB0-FFC9-41B7-8ABA-B91960F5127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="299">
   <si>
     <t>难度</t>
   </si>
@@ -1152,6 +1152,33 @@
   </si>
   <si>
     <t>dfs+reach[i][j] 环检测</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1184</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2022 January Contest, Silver
+Problem 3. Cereal 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图的抽象+有向图环检测</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=920</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2019 February Contest, Silver
+Problem 3. The Great Revegetation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图的抽象+连通分量交叉问题</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1576,19 +1603,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1703,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1717,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1707,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1799,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1809,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1843,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1880,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -1897,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1917,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1934,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -1965,7 +1992,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -1982,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1999,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2016,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2042,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2065,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2085,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2102,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2122,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2142,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2162,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2202,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2225,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2248,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2265,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2285,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2305,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2325,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2345,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2359,7 +2386,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2376,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2396,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2413,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2430,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2450,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2473,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2493,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2510,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2530,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2550,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2573,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2590,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2607,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2627,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2644,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2664,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2681,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2698,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2715,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2738,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2758,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -2775,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -2792,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -2812,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -2832,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -2852,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -2878,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -2930,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -2950,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -2973,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -2990,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3010,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3115,22 +3142,22 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.9140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3144,7 +3171,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3158,7 +3185,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3172,7 +3199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3186,7 +3213,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3214,7 +3241,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3228,7 +3255,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3242,7 +3269,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3256,7 +3283,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3270,7 +3297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3284,7 +3311,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3298,7 +3325,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3312,7 +3339,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3326,7 +3353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3340,7 +3367,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3354,7 +3381,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3368,7 +3395,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3382,7 +3409,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3396,7 +3423,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3410,7 +3437,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3424,7 +3451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3438,7 +3465,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3452,7 +3479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3466,7 +3493,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3480,7 +3507,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3494,7 +3521,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3508,7 +3535,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3522,7 +3549,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3536,7 +3563,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3550,7 +3577,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3564,7 +3591,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3578,7 +3605,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3606,7 +3633,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3620,7 +3647,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3634,7 +3661,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3648,151 +3675,171 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -3830,8 +3877,10 @@
     <hyperlink ref="B35" r:id="rId29" xr:uid="{4591C6CD-42E3-4130-84E4-A3688C21CA2F}"/>
     <hyperlink ref="B36" r:id="rId30" xr:uid="{40780C72-4D5B-4A8C-880A-939C8B86A688}"/>
     <hyperlink ref="B37" r:id="rId31" xr:uid="{D9BDC97D-3688-47AE-B0FA-221E5A448086}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{B475B256-967C-4F64-A4DD-526CEDC26042}"/>
+    <hyperlink ref="B39" r:id="rId33" xr:uid="{779F75BC-4D59-437A-9D4D-B9A710F5CA4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13FEB0-FFC9-41B7-8ABA-B91960F5127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA4CA0-8240-45B7-AE68-BA6AA2C5D319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="302">
   <si>
     <t>难度</t>
   </si>
@@ -1179,6 +1179,21 @@
   </si>
   <si>
     <t>图的抽象+连通分量交叉问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=380</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2014 January Contest, Silver
+Problem 2. Cross Country Skiing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分+bfs检查各点可达性
+（对效率要求很苛刻）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1603,19 +1618,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1732,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1853,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1978,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2043,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2069,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2092,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2169,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2189,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2252,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2352,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2372,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2386,7 +2401,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2403,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2423,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2477,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2500,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2557,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2600,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2617,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2634,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2708,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2725,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2785,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -2819,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -2859,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -2905,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -2931,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -2957,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -2977,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3037,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3141,23 +3156,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3186,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3185,7 +3200,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3213,7 +3228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3227,7 +3242,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3241,7 +3256,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3297,7 +3312,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3311,7 +3326,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3325,7 +3340,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3339,7 +3354,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3353,7 +3368,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3367,7 +3382,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3395,7 +3410,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3409,7 +3424,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3423,7 +3438,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3437,7 +3452,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3465,7 +3480,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3493,7 +3508,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3507,7 +3522,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3521,7 +3536,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3535,7 +3550,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3549,7 +3564,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3563,7 +3578,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3577,7 +3592,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3591,7 +3606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3605,7 +3620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3619,7 +3634,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3647,7 +3662,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3661,7 +3676,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3675,7 +3690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3703,143 +3718,153 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -3879,8 +3904,9 @@
     <hyperlink ref="B37" r:id="rId31" xr:uid="{D9BDC97D-3688-47AE-B0FA-221E5A448086}"/>
     <hyperlink ref="B38" r:id="rId32" xr:uid="{B475B256-967C-4F64-A4DD-526CEDC26042}"/>
     <hyperlink ref="B39" r:id="rId33" xr:uid="{779F75BC-4D59-437A-9D4D-B9A710F5CA4F}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{8EF40E9D-AAD0-49BA-ABB4-D948C6264B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA4CA0-8240-45B7-AE68-BA6AA2C5D319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4269440-D1F9-411F-B2E2-9B84CFECB808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="308">
   <si>
     <t>难度</t>
   </si>
@@ -1194,6 +1194,33 @@
   <si>
     <t>二分+bfs检查各点可达性
 （对效率要求很苛刻）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=570</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2015 December Contest, Silver
+Problem 1. Switching on the Lights</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散flood fill + flood 检查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=596</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2016 January Contest, Silver
+Problem 3. Build Gates</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood fill + 二维数组模拟fence</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1618,19 +1645,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1745,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1759,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1749,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1800,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1851,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1885,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1922,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -1939,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1976,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1993,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2034,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2041,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2058,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2084,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2127,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2184,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2204,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2221,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2244,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2267,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2290,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2307,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2327,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2347,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2367,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2387,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2401,7 +2428,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2418,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2455,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2472,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2492,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2515,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2535,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2572,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2592,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2615,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2632,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2649,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2669,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2706,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2723,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2740,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2757,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2780,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2800,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -2817,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -2834,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -2874,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -2894,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -2920,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -2946,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -2972,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -2992,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3015,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3032,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3052,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3156,23 +3183,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3186,7 +3213,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3214,7 +3241,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3228,7 +3255,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3242,7 +3269,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3256,7 +3283,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3270,7 +3297,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3284,7 +3311,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3298,7 +3325,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3312,7 +3339,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3326,7 +3353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3340,7 +3367,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3354,7 +3381,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3368,7 +3395,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3382,7 +3409,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3396,7 +3423,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3410,7 +3437,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3424,7 +3451,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3438,7 +3465,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3452,7 +3479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3466,7 +3493,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3480,7 +3507,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3494,7 +3521,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3508,7 +3535,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3522,7 +3549,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3536,7 +3563,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3550,7 +3577,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3564,7 +3591,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3578,7 +3605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3606,7 +3633,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3620,7 +3647,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3634,7 +3661,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3648,7 +3675,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3662,7 +3689,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3676,7 +3703,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3690,7 +3717,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3704,7 +3731,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3718,7 +3745,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3732,139 +3759,159 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -3905,8 +3952,10 @@
     <hyperlink ref="B38" r:id="rId32" xr:uid="{B475B256-967C-4F64-A4DD-526CEDC26042}"/>
     <hyperlink ref="B39" r:id="rId33" xr:uid="{779F75BC-4D59-437A-9D4D-B9A710F5CA4F}"/>
     <hyperlink ref="B40" r:id="rId34" xr:uid="{8EF40E9D-AAD0-49BA-ABB4-D948C6264B77}"/>
+    <hyperlink ref="B41" r:id="rId35" xr:uid="{072B07CF-9957-46DE-9CDE-3BA1DF0494C5}"/>
+    <hyperlink ref="B42" r:id="rId36" xr:uid="{94A572EA-DCFE-4DBE-BE38-367F3F128FDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4269440-D1F9-411F-B2E2-9B84CFECB808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377DDD2-E1EE-4503-9405-E1304BB015B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="311">
   <si>
     <t>难度</t>
   </si>
@@ -1221,6 +1221,19 @@
   </si>
   <si>
     <t>flood fill + 二维数组模拟fence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=620</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2016 February Contest, Silver
+Problem 3. Milk Pails</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs模拟 + 3参剪枝</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3183,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3788,8 +3801,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
@@ -3954,8 +3977,9 @@
     <hyperlink ref="B40" r:id="rId34" xr:uid="{8EF40E9D-AAD0-49BA-ABB4-D948C6264B77}"/>
     <hyperlink ref="B41" r:id="rId35" xr:uid="{072B07CF-9957-46DE-9CDE-3BA1DF0494C5}"/>
     <hyperlink ref="B42" r:id="rId36" xr:uid="{94A572EA-DCFE-4DBE-BE38-367F3F128FDA}"/>
+    <hyperlink ref="B43" r:id="rId37" xr:uid="{ADBF7BDF-CA54-48E4-B4F9-6D62775BE4C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377DDD2-E1EE-4503-9405-E1304BB015B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4A832-A7D1-495A-8150-FBF7AA1D8EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="317">
   <si>
     <t>难度</t>
   </si>
@@ -1234,6 +1234,32 @@
   </si>
   <si>
     <t>dfs模拟 + 3参剪枝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=740</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2017 US Open Contest, Silver
+Problem 3. Where's Bessie?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood fill + map块统计 + 几何剪枝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=716</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2017 February Contest, Silver
+Problem 3. Why Did the Cow Cross the Road III</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆向 flood fill</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3196,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3815,12 +3841,32 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3978,8 +4024,10 @@
     <hyperlink ref="B41" r:id="rId35" xr:uid="{072B07CF-9957-46DE-9CDE-3BA1DF0494C5}"/>
     <hyperlink ref="B42" r:id="rId36" xr:uid="{94A572EA-DCFE-4DBE-BE38-367F3F128FDA}"/>
     <hyperlink ref="B43" r:id="rId37" xr:uid="{ADBF7BDF-CA54-48E4-B4F9-6D62775BE4C5}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{DBCA6D58-459A-4A9A-BA5E-0A30B08949C0}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{0E912A48-8312-472F-AD5E-A49D20AA7ABB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4A832-A7D1-495A-8150-FBF7AA1D8EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929E866-9DDE-480B-AB59-80DFD5FBE8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="322">
   <si>
     <t>难度</t>
   </si>
@@ -1260,6 +1260,28 @@
   </si>
   <si>
     <t>逆向 flood fill</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=860</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2018 December Contest, Silver
+Problem 3. Mooyo Mooyo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood fill counting + flood fill changing
++ 双指针更新棋盘状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡龙游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1684,19 +1706,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1806,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1820,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1815,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1866,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1902,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1897,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1917,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1988,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2005,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2025,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2059,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2073,7 +2095,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2090,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2107,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2124,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2173,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2193,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2210,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2230,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2250,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2270,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2287,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2310,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2333,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2356,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2373,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2393,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2413,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2433,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2453,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2467,7 +2489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2484,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2504,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2521,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2538,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2558,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2581,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2601,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2618,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2658,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2681,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2698,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2715,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2735,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2752,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2772,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2789,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2806,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2823,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2846,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2866,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -2883,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -2900,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -2920,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -2940,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -2960,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -2986,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3012,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3038,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3058,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3081,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3098,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3220,25 +3242,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3251,8 +3274,11 @@
       <c r="D1" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3266,7 +3292,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3280,7 +3306,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3294,7 +3320,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3308,7 +3334,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3322,7 +3348,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3336,7 +3362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3350,7 +3376,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3364,7 +3390,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3378,7 +3404,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3392,7 +3418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3406,7 +3432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3420,7 +3446,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3434,7 +3460,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3448,7 +3474,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3462,7 +3488,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3476,7 +3502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3490,7 +3516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3504,7 +3530,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3518,7 +3544,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3532,7 +3558,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3546,7 +3572,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3560,7 +3586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3574,7 +3600,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3588,7 +3614,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3602,7 +3628,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3616,7 +3642,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3630,7 +3656,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3644,7 +3670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3658,7 +3684,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3672,7 +3698,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3686,7 +3712,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3700,7 +3726,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3714,7 +3740,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3728,7 +3754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3742,7 +3768,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3756,7 +3782,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3770,7 +3796,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3784,7 +3810,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3798,7 +3824,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>303</v>
       </c>
@@ -3812,7 +3838,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>306</v>
       </c>
@@ -3826,7 +3852,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>309</v>
       </c>
@@ -3840,7 +3866,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>312</v>
       </c>
@@ -3854,7 +3880,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>315</v>
       </c>
@@ -3868,119 +3894,132 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -4026,8 +4065,9 @@
     <hyperlink ref="B43" r:id="rId37" xr:uid="{ADBF7BDF-CA54-48E4-B4F9-6D62775BE4C5}"/>
     <hyperlink ref="B44" r:id="rId38" xr:uid="{DBCA6D58-459A-4A9A-BA5E-0A30B08949C0}"/>
     <hyperlink ref="B45" r:id="rId39" xr:uid="{0E912A48-8312-472F-AD5E-A49D20AA7ABB}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{B7275F49-7890-4FFB-B9AE-74CBC23E91BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929E866-9DDE-480B-AB59-80DFD5FBE8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A551D-986D-4665-BBB7-C3467E0F1F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="325">
   <si>
     <t>难度</t>
   </si>
@@ -1282,6 +1282,20 @@
   </si>
   <si>
     <t>泡泡龙游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1350</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2023 December Contest, Silver
+Problem 1. Bovine Acrobatics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+单调队列+状态压缩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3245,7 +3259,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3912,8 +3926,18 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
@@ -4066,8 +4090,9 @@
     <hyperlink ref="B44" r:id="rId38" xr:uid="{DBCA6D58-459A-4A9A-BA5E-0A30B08949C0}"/>
     <hyperlink ref="B45" r:id="rId39" xr:uid="{0E912A48-8312-472F-AD5E-A49D20AA7ABB}"/>
     <hyperlink ref="B46" r:id="rId40" xr:uid="{B7275F49-7890-4FFB-B9AE-74CBC23E91BC}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{BA57EB9A-AF36-4E7D-8B9D-8DB57DBD486D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A551D-986D-4665-BBB7-C3467E0F1F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E4ABA-2DE3-4E2C-AD8D-2F0D23075599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="332">
   <si>
     <t>难度</t>
   </si>
@@ -1296,6 +1296,37 @@
   </si>
   <si>
     <t>贪心+单调队列+状态压缩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1351</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2023 December Contest, Silver
+Problem 2. Cycle Correspondence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环数组的offset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1352</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀+后缀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2023 December Contest, Silver
+Problem 3. Target Practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3258,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3940,70 +3971,93 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
@@ -4091,8 +4145,10 @@
     <hyperlink ref="B45" r:id="rId39" xr:uid="{0E912A48-8312-472F-AD5E-A49D20AA7ABB}"/>
     <hyperlink ref="B46" r:id="rId40" xr:uid="{B7275F49-7890-4FFB-B9AE-74CBC23E91BC}"/>
     <hyperlink ref="B47" r:id="rId41" xr:uid="{BA57EB9A-AF36-4E7D-8B9D-8DB57DBD486D}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{2B53B0AC-35AD-48FC-8E94-6EDC4E4E0E16}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{08DC754E-03B2-4643-9F3F-110315B91B01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E4ABA-2DE3-4E2C-AD8D-2F0D23075599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1581AE8-B922-4EE2-8ACB-076251E1B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="335">
   <si>
     <t>难度</t>
   </si>
@@ -1327,6 +1327,19 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2023 January Contest, Silver
+Problem 3. Moo Route</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack +贪心</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1462,6 +1475,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3289,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3997,13 +4013,23 @@
       <c r="D49" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1581AE8-B922-4EE2-8ACB-076251E1B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782E611-A00D-4797-A282-15BE632AC422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="338">
   <si>
     <t>难度</t>
   </si>
@@ -1340,6 +1340,19 @@
   </si>
   <si>
     <t>stack +贪心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1207</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 February Contest, Silver
+Problem 2. Robot Instructions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(40,20) 的优化 + pair hash</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3305,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4032,8 +4045,18 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
@@ -4173,8 +4196,9 @@
     <hyperlink ref="B47" r:id="rId41" xr:uid="{BA57EB9A-AF36-4E7D-8B9D-8DB57DBD486D}"/>
     <hyperlink ref="B48" r:id="rId42" xr:uid="{2B53B0AC-35AD-48FC-8E94-6EDC4E4E0E16}"/>
     <hyperlink ref="B49" r:id="rId43" xr:uid="{08DC754E-03B2-4643-9F3F-110315B91B01}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{4ABE615F-540A-476D-AF7C-515849DDC539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782E611-A00D-4797-A282-15BE632AC422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9DDA7-CD55-44CF-9E88-464EBCD133FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="341">
   <si>
     <t>难度</t>
   </si>
@@ -1353,6 +1353,19 @@
   </si>
   <si>
     <t>C(40,20) 的优化 + pair hash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 February Contest, Silver
+Problem 3. Email Filing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1208</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象hash滑动窗口 + 双端队列+ 栈</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1780,19 +1793,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1866,7 +1879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1911,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1962,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +1989,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2047,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2101,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2121,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2155,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2186,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2203,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2220,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2246,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2289,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2326,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2366,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2383,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2489,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2563,7 +2576,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2600,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2617,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2634,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2654,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2677,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2697,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2714,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2777,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2811,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2868,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2885,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2919,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3036,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3056,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3177,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3194,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3214,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3319,23 +3332,23 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3352,7 +3365,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3366,7 +3379,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3380,7 +3393,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3394,7 +3407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3408,7 +3421,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3422,7 +3435,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3436,7 +3449,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3450,7 +3463,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3464,7 +3477,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3478,7 +3491,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3492,7 +3505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3506,7 +3519,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3520,7 +3533,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3534,7 +3547,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3548,7 +3561,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3562,7 +3575,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3576,7 +3589,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3604,7 +3617,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3618,7 +3631,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3632,7 +3645,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3646,7 +3659,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3688,7 +3701,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3702,7 +3715,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3744,7 +3757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3758,7 +3771,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3772,7 +3785,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3786,7 +3799,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3814,7 +3827,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3828,7 +3841,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3842,7 +3855,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3856,7 +3869,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3884,7 +3897,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3898,7 +3911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>303</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>306</v>
       </c>
@@ -3926,7 +3939,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>309</v>
       </c>
@@ -3940,7 +3953,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>312</v>
       </c>
@@ -3954,7 +3967,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>315</v>
       </c>
@@ -3968,7 +3981,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>318</v>
       </c>
@@ -3985,7 +3998,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>323</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>326</v>
       </c>
@@ -4013,7 +4026,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>330</v>
       </c>
@@ -4030,7 +4043,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4044,7 +4057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>336</v>
       </c>
@@ -4058,95 +4071,105 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -4197,8 +4220,9 @@
     <hyperlink ref="B48" r:id="rId42" xr:uid="{2B53B0AC-35AD-48FC-8E94-6EDC4E4E0E16}"/>
     <hyperlink ref="B49" r:id="rId43" xr:uid="{08DC754E-03B2-4643-9F3F-110315B91B01}"/>
     <hyperlink ref="B51" r:id="rId44" xr:uid="{4ABE615F-540A-476D-AF7C-515849DDC539}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{DF93BDDA-2465-4ABF-AF18-0AED25BE4799}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9DDA7-CD55-44CF-9E88-464EBCD133FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25958C7F-4352-46B1-B2A6-61FC86A6AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="344">
   <si>
     <t>难度</t>
   </si>
@@ -1366,6 +1366,19 @@
   </si>
   <si>
     <t>抽象hash滑动窗口 + 双端队列+ 栈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1182</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 January Contest, Silver
+Problem 1. Searching for Soulmates</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3331,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4072,7 +4085,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4086,8 +4099,18 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4221,8 +4244,9 @@
     <hyperlink ref="B49" r:id="rId43" xr:uid="{08DC754E-03B2-4643-9F3F-110315B91B01}"/>
     <hyperlink ref="B51" r:id="rId44" xr:uid="{4ABE615F-540A-476D-AF7C-515849DDC539}"/>
     <hyperlink ref="B52" r:id="rId45" xr:uid="{DF93BDDA-2465-4ABF-AF18-0AED25BE4799}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{E633B21E-D277-4AC3-9FBA-A9550AB5D115}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25958C7F-4352-46B1-B2A6-61FC86A6AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E1B5D-E226-40A7-8BB1-35E6D3E14540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="347">
   <si>
     <t>难度</t>
   </si>
@@ -1379,6 +1379,19 @@
   </si>
   <si>
     <t>递归</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1183</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 January Contest, Silver
+Problem 2. Cow Frisbee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1806,19 +1819,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1933,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1937,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1988,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +2015,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2056,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2073,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2093,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2127,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2147,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2181,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2229,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2246,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2272,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2315,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2392,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2432,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2455,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2478,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2495,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2515,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2535,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2555,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2626,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2680,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2703,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2723,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2740,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2760,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2780,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2803,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2820,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2837,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2857,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2894,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2911,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2945,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2968,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -2988,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -3005,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -3022,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3062,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3160,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3203,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3220,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3348,20 +3361,20 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3406,7 +3419,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3420,7 +3433,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3434,7 +3447,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3448,7 +3461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3462,7 +3475,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3476,7 +3489,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3504,7 +3517,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3518,7 +3531,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3532,7 +3545,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3560,7 +3573,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3574,7 +3587,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3588,7 +3601,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3602,7 +3615,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3616,7 +3629,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3644,7 +3657,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3658,7 +3671,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3672,7 +3685,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3686,7 +3699,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3700,7 +3713,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3714,7 +3727,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3742,7 +3755,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3756,7 +3769,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3770,7 +3783,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3784,7 +3797,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3798,7 +3811,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3812,7 +3825,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3826,7 +3839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3854,7 +3867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3882,7 +3895,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3896,7 +3909,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3910,7 +3923,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3924,7 +3937,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>303</v>
       </c>
@@ -3938,7 +3951,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>306</v>
       </c>
@@ -3952,7 +3965,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>309</v>
       </c>
@@ -3966,7 +3979,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>312</v>
       </c>
@@ -3980,7 +3993,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>315</v>
       </c>
@@ -3994,7 +4007,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>318</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>323</v>
       </c>
@@ -4025,7 +4038,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>326</v>
       </c>
@@ -4039,7 +4052,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>330</v>
       </c>
@@ -4056,7 +4069,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4070,7 +4083,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>336</v>
       </c>
@@ -4084,7 +4097,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>342</v>
       </c>
@@ -4112,87 +4125,97 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -4245,8 +4268,9 @@
     <hyperlink ref="B51" r:id="rId44" xr:uid="{4ABE615F-540A-476D-AF7C-515849DDC539}"/>
     <hyperlink ref="B52" r:id="rId45" xr:uid="{DF93BDDA-2465-4ABF-AF18-0AED25BE4799}"/>
     <hyperlink ref="B53" r:id="rId46" xr:uid="{E633B21E-D277-4AC3-9FBA-A9550AB5D115}"/>
+    <hyperlink ref="B54" r:id="rId47" xr:uid="{57A62B80-76A3-4FAB-8074-5138A4BCA73E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E1B5D-E226-40A7-8BB1-35E6D3E14540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5E058-09DC-4F3D-84FA-DD3CEA4B1DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="350">
   <si>
     <t>难度</t>
   </si>
@@ -1392,6 +1392,19 @@
   </si>
   <si>
     <t>单调栈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1110</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 February Contest, Silver
+Problem 1. Comfortable Cows</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash离散化2D-grid + dfs</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1819,19 +1832,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1932,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +1946,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2015,7 +2028,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2052,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2106,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2123,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2140,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2177,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2194,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2208,7 +2221,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2225,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2259,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2285,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2308,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2345,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2365,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2385,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2422,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2445,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2508,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2528,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2588,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2639,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2656,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2673,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2693,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2736,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2753,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2773,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2793,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2833,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2850,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2870,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2887,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2907,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2924,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2941,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2958,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -2981,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -3035,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3055,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3075,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3121,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3147,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3173,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3193,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3233,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3253,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3357,24 +3370,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3404,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3419,7 +3432,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3433,7 +3446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3447,7 +3460,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3461,7 +3474,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3475,7 +3488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3489,7 +3502,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3517,7 +3530,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3545,7 +3558,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3573,7 +3586,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3587,7 +3600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3601,7 +3614,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3615,7 +3628,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3629,7 +3642,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3643,7 +3656,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3657,7 +3670,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3671,7 +3684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3685,7 +3698,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3699,7 +3712,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3713,7 +3726,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3727,7 +3740,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3741,7 +3754,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3755,7 +3768,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3769,7 +3782,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3797,7 +3810,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3811,7 +3824,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3825,7 +3838,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3853,7 +3866,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3867,7 +3880,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3881,7 +3894,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3923,7 +3936,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3937,7 +3950,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>303</v>
       </c>
@@ -3951,7 +3964,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>306</v>
       </c>
@@ -3965,7 +3978,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>309</v>
       </c>
@@ -3979,7 +3992,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>312</v>
       </c>
@@ -3993,7 +4006,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>315</v>
       </c>
@@ -4007,7 +4020,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>318</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>323</v>
       </c>
@@ -4038,7 +4051,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>326</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>330</v>
       </c>
@@ -4069,7 +4082,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4083,7 +4096,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>336</v>
       </c>
@@ -4097,7 +4110,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
@@ -4111,7 +4124,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>342</v>
       </c>
@@ -4125,7 +4138,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>345</v>
       </c>
@@ -4139,83 +4152,93 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -4269,8 +4292,9 @@
     <hyperlink ref="B52" r:id="rId45" xr:uid="{DF93BDDA-2465-4ABF-AF18-0AED25BE4799}"/>
     <hyperlink ref="B53" r:id="rId46" xr:uid="{E633B21E-D277-4AC3-9FBA-A9550AB5D115}"/>
     <hyperlink ref="B54" r:id="rId47" xr:uid="{57A62B80-76A3-4FAB-8074-5138A4BCA73E}"/>
+    <hyperlink ref="B55" r:id="rId48" xr:uid="{63B96D2C-5CB3-4D58-9B99-E002550B0625}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5E058-09DC-4F3D-84FA-DD3CEA4B1DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3727F7-8A40-49A4-81FB-DAD3A6398C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="352">
   <si>
     <t>难度</t>
   </si>
@@ -1405,6 +1405,15 @@
   </si>
   <si>
     <t>hash离散化2D-grid + dfs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=1111</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 February Contest, Silver
+Problem 2. Year of the Cow</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3370,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4167,8 +4176,18 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -4293,8 +4312,9 @@
     <hyperlink ref="B53" r:id="rId46" xr:uid="{E633B21E-D277-4AC3-9FBA-A9550AB5D115}"/>
     <hyperlink ref="B54" r:id="rId47" xr:uid="{57A62B80-76A3-4FAB-8074-5138A4BCA73E}"/>
     <hyperlink ref="B55" r:id="rId48" xr:uid="{63B96D2C-5CB3-4D58-9B99-E002550B0625}"/>
+    <hyperlink ref="B56" r:id="rId49" xr:uid="{9CAB13F0-C055-4EB2-B85B-9C5DE9E743FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3727F7-8A40-49A4-81FB-DAD3A6398C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B99F97-2588-4886-AA12-0AD0D81D4290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="355">
   <si>
     <t>难度</t>
   </si>
@@ -1414,6 +1414,20 @@
   <si>
     <t>USACO 2021 February Contest, Silver
 Problem 2. Year of the Cow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学函数分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usaco.org/index.php?page=viewproblem2&amp;cpid=812</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2018 February Contest, Silver
+Problem 3. Teleportation</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3379,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4190,8 +4204,18 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
@@ -4313,8 +4337,9 @@
     <hyperlink ref="B54" r:id="rId47" xr:uid="{57A62B80-76A3-4FAB-8074-5138A4BCA73E}"/>
     <hyperlink ref="B55" r:id="rId48" xr:uid="{63B96D2C-5CB3-4D58-9B99-E002550B0625}"/>
     <hyperlink ref="B56" r:id="rId49" xr:uid="{9CAB13F0-C055-4EB2-B85B-9C5DE9E743FD}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{B1370E01-1A49-4193-9414-70F587A56CFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B99F97-2588-4886-AA12-0AD0D81D4290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C3A5D-26AE-4AFD-94C6-1C604FE84553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="356">
   <si>
     <t>难度</t>
   </si>
@@ -1428,6 +1428,10 @@
     <t xml:space="preserve">
 USACO 2018 February Contest, Silver
 Problem 3. Teleportation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1855,19 +1859,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2401,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2692,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -3037,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3252,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3393,24 +3397,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3592,10 +3596,10 @@
         <v>200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3721,7 +3725,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3833,7 +3837,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3847,7 +3851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>303</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>306</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>309</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>312</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>315</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>318</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>323</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>326</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>330</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>336</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>342</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>345</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>348</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>351</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>354</v>
       </c>
@@ -4217,71 +4221,71 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C3A5D-26AE-4AFD-94C6-1C604FE84553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99349B-8299-412A-A7A2-C407BB3D4098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="372">
   <si>
     <t>难度</t>
   </si>
@@ -1432,6 +1432,75 @@
   </si>
   <si>
     <t>入度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1398</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2024 February Contest, Silver
+Problem 1. Target Practice II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometry + greedy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1399</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 February Contest, Silver
+Problem 2. Test Tubes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 February Contest, Silver
+Problem 3. Moorbles</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>game theory + greedy + suffix</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap + greedy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1350&amp;lang=en</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1351</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 January Contest, Silver
+Problem 1. Cowmpetency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1374</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy + prefix + compression</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1859,19 +1928,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1945,7 +2014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1959,7 +2028,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +2042,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -1990,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2024,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2041,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2055,7 +2124,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2092,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2109,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2163,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2180,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2200,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2217,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2234,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2248,7 +2317,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2265,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2282,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2299,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2325,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2348,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2368,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2385,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2405,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2425,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2445,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2462,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2485,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2508,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2531,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2548,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2568,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2588,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2608,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2628,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2642,7 +2711,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2659,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2679,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2696,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2713,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2733,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2756,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2776,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2793,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2813,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2833,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2856,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2873,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2890,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2910,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2927,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -2947,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -2964,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -2981,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -2998,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -3021,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -3041,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -3058,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -3075,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3095,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3115,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3135,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3161,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3187,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3213,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3233,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3256,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3273,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3293,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3397,24 +3466,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3431,7 +3500,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3445,7 +3514,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3459,7 +3528,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3473,7 +3542,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3487,7 +3556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3501,7 +3570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3515,7 +3584,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3529,7 +3598,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3543,7 +3612,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3557,7 +3626,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3571,7 +3640,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3585,7 +3654,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3599,7 +3668,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3613,7 +3682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3627,7 +3696,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3641,7 +3710,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3655,7 +3724,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3669,7 +3738,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3683,7 +3752,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3697,7 +3766,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3711,7 +3780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3725,7 +3794,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3739,7 +3808,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3753,7 +3822,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3767,7 +3836,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3781,7 +3850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3795,7 +3864,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3809,7 +3878,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3823,7 +3892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3837,7 +3906,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3851,7 +3920,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3865,7 +3934,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3879,7 +3948,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>278</v>
       </c>
@@ -3893,7 +3962,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -3907,7 +3976,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>288</v>
       </c>
@@ -3921,7 +3990,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>291</v>
       </c>
@@ -3935,7 +4004,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>294</v>
       </c>
@@ -3949,7 +4018,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>297</v>
       </c>
@@ -3963,7 +4032,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>300</v>
       </c>
@@ -3977,7 +4046,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>303</v>
       </c>
@@ -3991,7 +4060,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>306</v>
       </c>
@@ -4005,7 +4074,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>309</v>
       </c>
@@ -4019,7 +4088,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>312</v>
       </c>
@@ -4033,7 +4102,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>315</v>
       </c>
@@ -4047,7 +4116,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>318</v>
       </c>
@@ -4064,7 +4133,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>323</v>
       </c>
@@ -4078,7 +4147,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>326</v>
       </c>
@@ -4092,7 +4161,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>330</v>
       </c>
@@ -4109,7 +4178,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4123,7 +4192,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>336</v>
       </c>
@@ -4137,7 +4206,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
@@ -4151,7 +4220,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>342</v>
       </c>
@@ -4165,7 +4234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>345</v>
       </c>
@@ -4179,7 +4248,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>348</v>
       </c>
@@ -4193,7 +4262,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>351</v>
       </c>
@@ -4207,7 +4276,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>354</v>
       </c>
@@ -4221,71 +4290,131 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -4342,8 +4471,14 @@
     <hyperlink ref="B55" r:id="rId48" xr:uid="{63B96D2C-5CB3-4D58-9B99-E002550B0625}"/>
     <hyperlink ref="B56" r:id="rId49" xr:uid="{9CAB13F0-C055-4EB2-B85B-9C5DE9E743FD}"/>
     <hyperlink ref="B57" r:id="rId50" xr:uid="{B1370E01-1A49-4193-9414-70F587A56CFF}"/>
+    <hyperlink ref="B58" r:id="rId51" xr:uid="{4C8068E0-DABC-49E0-98FD-0C72922F6EC6}"/>
+    <hyperlink ref="B59" r:id="rId52" xr:uid="{7FE2DE64-3580-43C9-B702-192E5B40B32C}"/>
+    <hyperlink ref="B60" r:id="rId53" xr:uid="{2FE0BD3F-66E9-4EDE-A950-8E13F1A6508D}"/>
+    <hyperlink ref="B61" r:id="rId54" xr:uid="{94878CAB-364C-47F1-ACCC-1432DAF028F9}"/>
+    <hyperlink ref="B62" r:id="rId55" xr:uid="{0EDD01E7-62E5-4EC4-8DC1-C2F5F2087AD4}"/>
+    <hyperlink ref="B63" r:id="rId56" xr:uid="{B527559E-2DE9-487E-81A2-C207D1C6215E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99349B-8299-412A-A7A2-C407BB3D4098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08DFF92-A6A3-4FEC-B339-5DB6D76ACB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="2520" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="378">
   <si>
     <t>难度</t>
   </si>
@@ -1501,6 +1501,33 @@
   </si>
   <si>
     <t>greedy + prefix + compression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1375</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2024 January Contest, Silver
+Problem 2. Potion Farming</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph + O(n)dfs + leaf nodes + hidden in_deg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2024 January Contest, Silver
+Problem 3. Cowlendar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1376</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>congruence + math</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3466,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3475,7 +3502,7 @@
     <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
     <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
@@ -4375,46 +4402,66 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
@@ -4477,8 +4524,10 @@
     <hyperlink ref="B61" r:id="rId54" xr:uid="{94878CAB-364C-47F1-ACCC-1432DAF028F9}"/>
     <hyperlink ref="B62" r:id="rId55" xr:uid="{0EDD01E7-62E5-4EC4-8DC1-C2F5F2087AD4}"/>
     <hyperlink ref="B63" r:id="rId56" xr:uid="{B527559E-2DE9-487E-81A2-C207D1C6215E}"/>
+    <hyperlink ref="B64" r:id="rId57" xr:uid="{C596AAC3-26F7-41F6-81CC-B043604AE639}"/>
+    <hyperlink ref="B65" r:id="rId58" xr:uid="{31AE362F-AE10-4697-95AD-D3D79FC5BE68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99349B-8299-412A-A7A2-C407BB3D4098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738B2AB-4680-44BB-9D60-08C28D83FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bronze!$A$1:$V$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Silver!$A$1:$V$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Silver!$A$1:$V$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="370">
   <si>
     <t>难度</t>
   </si>
@@ -1078,10 +1078,6 @@
   </si>
   <si>
     <t>bfs无向图全连接检测</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单向图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1323,10 +1319,6 @@
     <t xml:space="preserve">
 USACO 2023 December Contest, Silver
 Problem 3. Target Practice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1609,7 +1601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,9 +1628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1928,19 +1917,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2031,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -2059,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2076,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2141,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2178,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2195,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2232,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2269,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2286,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2303,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2317,7 +2306,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2351,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2368,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2394,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2417,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2437,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2454,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2474,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2494,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2514,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2531,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2554,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2577,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2600,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2617,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2637,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2657,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2677,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2697,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2711,7 +2700,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2728,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2748,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2765,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2782,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -2825,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2845,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -2862,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -2882,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -2902,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -2925,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -2942,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -2959,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -2979,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -2996,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -3016,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -3033,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -3050,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -3067,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -3090,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -3110,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -3127,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -3144,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3164,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3184,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3204,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3230,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3256,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3282,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3302,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3325,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3342,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3362,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3464,26 +3453,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3497,10 +3486,10 @@
         <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3514,7 +3503,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3528,7 +3517,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3542,7 +3531,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3556,7 +3545,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3570,7 +3559,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3584,7 +3573,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3598,7 +3587,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3612,7 +3601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3626,7 +3615,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3640,7 +3629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3654,7 +3643,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3665,10 +3654,10 @@
         <v>200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3682,7 +3671,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3710,7 +3699,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -3724,7 +3713,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
@@ -3738,7 +3727,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>221</v>
       </c>
@@ -3752,7 +3741,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>222</v>
       </c>
@@ -3766,7 +3755,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>225</v>
       </c>
@@ -3780,7 +3769,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
@@ -3794,7 +3783,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>231</v>
       </c>
@@ -3808,7 +3797,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>234</v>
       </c>
@@ -3822,7 +3811,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>237</v>
       </c>
@@ -3836,7 +3825,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>240</v>
       </c>
@@ -3850,7 +3839,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>246</v>
       </c>
@@ -3878,7 +3867,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>248</v>
       </c>
@@ -3892,7 +3881,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -3906,7 +3895,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>254</v>
       </c>
@@ -3920,7 +3909,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>278</v>
       </c>
@@ -3934,7 +3923,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>281</v>
       </c>
@@ -3948,475 +3937,458 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D40" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D41" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="C49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="C54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="C58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4448,37 +4420,36 @@
     <hyperlink ref="B31" r:id="rId25" xr:uid="{BEAD5244-45CB-450D-878E-88704AD119C3}"/>
     <hyperlink ref="B32" r:id="rId26" xr:uid="{C9F3C241-C00B-4E2F-8B35-266C57CE5DB0}"/>
     <hyperlink ref="B33" r:id="rId27" xr:uid="{94FF9DB2-3C4A-4EF7-B9C7-0A5C05CBF5C0}"/>
-    <hyperlink ref="B34" r:id="rId28" xr:uid="{F368253B-A38F-4CA5-906D-89C92C6B284E}"/>
-    <hyperlink ref="B35" r:id="rId29" xr:uid="{4591C6CD-42E3-4130-84E4-A3688C21CA2F}"/>
-    <hyperlink ref="B36" r:id="rId30" xr:uid="{40780C72-4D5B-4A8C-880A-939C8B86A688}"/>
-    <hyperlink ref="B37" r:id="rId31" xr:uid="{D9BDC97D-3688-47AE-B0FA-221E5A448086}"/>
-    <hyperlink ref="B38" r:id="rId32" xr:uid="{B475B256-967C-4F64-A4DD-526CEDC26042}"/>
-    <hyperlink ref="B39" r:id="rId33" xr:uid="{779F75BC-4D59-437A-9D4D-B9A710F5CA4F}"/>
-    <hyperlink ref="B40" r:id="rId34" xr:uid="{8EF40E9D-AAD0-49BA-ABB4-D948C6264B77}"/>
-    <hyperlink ref="B41" r:id="rId35" xr:uid="{072B07CF-9957-46DE-9CDE-3BA1DF0494C5}"/>
-    <hyperlink ref="B42" r:id="rId36" xr:uid="{94A572EA-DCFE-4DBE-BE38-367F3F128FDA}"/>
-    <hyperlink ref="B43" r:id="rId37" xr:uid="{ADBF7BDF-CA54-48E4-B4F9-6D62775BE4C5}"/>
-    <hyperlink ref="B44" r:id="rId38" xr:uid="{DBCA6D58-459A-4A9A-BA5E-0A30B08949C0}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{0E912A48-8312-472F-AD5E-A49D20AA7ABB}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{B7275F49-7890-4FFB-B9AE-74CBC23E91BC}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{BA57EB9A-AF36-4E7D-8B9D-8DB57DBD486D}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{2B53B0AC-35AD-48FC-8E94-6EDC4E4E0E16}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{08DC754E-03B2-4643-9F3F-110315B91B01}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{4ABE615F-540A-476D-AF7C-515849DDC539}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{DF93BDDA-2465-4ABF-AF18-0AED25BE4799}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{E633B21E-D277-4AC3-9FBA-A9550AB5D115}"/>
-    <hyperlink ref="B54" r:id="rId47" xr:uid="{57A62B80-76A3-4FAB-8074-5138A4BCA73E}"/>
-    <hyperlink ref="B55" r:id="rId48" xr:uid="{63B96D2C-5CB3-4D58-9B99-E002550B0625}"/>
-    <hyperlink ref="B56" r:id="rId49" xr:uid="{9CAB13F0-C055-4EB2-B85B-9C5DE9E743FD}"/>
-    <hyperlink ref="B57" r:id="rId50" xr:uid="{B1370E01-1A49-4193-9414-70F587A56CFF}"/>
-    <hyperlink ref="B58" r:id="rId51" xr:uid="{4C8068E0-DABC-49E0-98FD-0C72922F6EC6}"/>
-    <hyperlink ref="B59" r:id="rId52" xr:uid="{7FE2DE64-3580-43C9-B702-192E5B40B32C}"/>
-    <hyperlink ref="B60" r:id="rId53" xr:uid="{2FE0BD3F-66E9-4EDE-A950-8E13F1A6508D}"/>
-    <hyperlink ref="B61" r:id="rId54" xr:uid="{94878CAB-364C-47F1-ACCC-1432DAF028F9}"/>
-    <hyperlink ref="B62" r:id="rId55" xr:uid="{0EDD01E7-62E5-4EC4-8DC1-C2F5F2087AD4}"/>
-    <hyperlink ref="B63" r:id="rId56" xr:uid="{B527559E-2DE9-487E-81A2-C207D1C6215E}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{4591C6CD-42E3-4130-84E4-A3688C21CA2F}"/>
+    <hyperlink ref="B35" r:id="rId29" xr:uid="{40780C72-4D5B-4A8C-880A-939C8B86A688}"/>
+    <hyperlink ref="B36" r:id="rId30" xr:uid="{D9BDC97D-3688-47AE-B0FA-221E5A448086}"/>
+    <hyperlink ref="B37" r:id="rId31" xr:uid="{B475B256-967C-4F64-A4DD-526CEDC26042}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{779F75BC-4D59-437A-9D4D-B9A710F5CA4F}"/>
+    <hyperlink ref="B39" r:id="rId33" xr:uid="{8EF40E9D-AAD0-49BA-ABB4-D948C6264B77}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{072B07CF-9957-46DE-9CDE-3BA1DF0494C5}"/>
+    <hyperlink ref="B41" r:id="rId35" xr:uid="{94A572EA-DCFE-4DBE-BE38-367F3F128FDA}"/>
+    <hyperlink ref="B42" r:id="rId36" xr:uid="{ADBF7BDF-CA54-48E4-B4F9-6D62775BE4C5}"/>
+    <hyperlink ref="B43" r:id="rId37" xr:uid="{DBCA6D58-459A-4A9A-BA5E-0A30B08949C0}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{0E912A48-8312-472F-AD5E-A49D20AA7ABB}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{B7275F49-7890-4FFB-B9AE-74CBC23E91BC}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{BA57EB9A-AF36-4E7D-8B9D-8DB57DBD486D}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{2B53B0AC-35AD-48FC-8E94-6EDC4E4E0E16}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{08DC754E-03B2-4643-9F3F-110315B91B01}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{4ABE615F-540A-476D-AF7C-515849DDC539}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{DF93BDDA-2465-4ABF-AF18-0AED25BE4799}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{E633B21E-D277-4AC3-9FBA-A9550AB5D115}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{57A62B80-76A3-4FAB-8074-5138A4BCA73E}"/>
+    <hyperlink ref="B54" r:id="rId47" xr:uid="{63B96D2C-5CB3-4D58-9B99-E002550B0625}"/>
+    <hyperlink ref="B55" r:id="rId48" xr:uid="{9CAB13F0-C055-4EB2-B85B-9C5DE9E743FD}"/>
+    <hyperlink ref="B56" r:id="rId49" xr:uid="{B1370E01-1A49-4193-9414-70F587A56CFF}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{4C8068E0-DABC-49E0-98FD-0C72922F6EC6}"/>
+    <hyperlink ref="B58" r:id="rId51" xr:uid="{7FE2DE64-3580-43C9-B702-192E5B40B32C}"/>
+    <hyperlink ref="B59" r:id="rId52" xr:uid="{2FE0BD3F-66E9-4EDE-A950-8E13F1A6508D}"/>
+    <hyperlink ref="B60" r:id="rId53" xr:uid="{94878CAB-364C-47F1-ACCC-1432DAF028F9}"/>
+    <hyperlink ref="B61" r:id="rId54" xr:uid="{0EDD01E7-62E5-4EC4-8DC1-C2F5F2087AD4}"/>
+    <hyperlink ref="B62" r:id="rId55" xr:uid="{B527559E-2DE9-487E-81A2-C207D1C6215E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738B2AB-4680-44BB-9D60-08C28D83FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA05234-5DC6-49B3-BB60-03F2B1767920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="373">
   <si>
     <t>难度</t>
   </si>
@@ -1493,6 +1493,19 @@
   </si>
   <si>
     <t>greedy + prefix + compression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1304</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2023 February Contest, Silver
+Problem 3. Moo Route II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>build the graph + dfs</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3456,7 +3469,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4347,8 +4360,18 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
@@ -4448,8 +4471,9 @@
     <hyperlink ref="B60" r:id="rId53" xr:uid="{94878CAB-364C-47F1-ACCC-1432DAF028F9}"/>
     <hyperlink ref="B61" r:id="rId54" xr:uid="{0EDD01E7-62E5-4EC4-8DC1-C2F5F2087AD4}"/>
     <hyperlink ref="B62" r:id="rId55" xr:uid="{B527559E-2DE9-487E-81A2-C207D1C6215E}"/>
+    <hyperlink ref="B63" r:id="rId56" xr:uid="{EE48A03E-9E16-402C-A71D-7BABCD0997E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA05234-5DC6-49B3-BB60-03F2B1767920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51AFFCD-E230-4138-B337-F867FF19FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="382">
   <si>
     <t>难度</t>
   </si>
@@ -1506,6 +1506,46 @@
   </si>
   <si>
     <t>build the graph + dfs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1254</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2022 December Contest, Silver
+Problem 1. Barn Tree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree + topological dfs + 2dfs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2023 December Contest, Silver
+Problem 3. Target Practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1352</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffix + offset + math</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1255</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 December Contest, Silver
+Problem 2. Circular Barn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>math + 埃氏筛 + game theory</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3468,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4374,42 +4414,72 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
@@ -4472,8 +4542,12 @@
     <hyperlink ref="B61" r:id="rId54" xr:uid="{0EDD01E7-62E5-4EC4-8DC1-C2F5F2087AD4}"/>
     <hyperlink ref="B62" r:id="rId55" xr:uid="{B527559E-2DE9-487E-81A2-C207D1C6215E}"/>
     <hyperlink ref="B63" r:id="rId56" xr:uid="{EE48A03E-9E16-402C-A71D-7BABCD0997E0}"/>
+    <hyperlink ref="A64" r:id="rId57" display="https://usaco.org/index.php?page=viewproblem2&amp;cpid=1254" xr:uid="{15C4991A-DC02-4A33-97AE-CFCC11E9C851}"/>
+    <hyperlink ref="B64" r:id="rId58" xr:uid="{ECDFDE85-2013-4416-9AF3-17DDF2459773}"/>
+    <hyperlink ref="B65" r:id="rId59" xr:uid="{6D0A85E1-80A6-4A87-8E07-3A22EAC36CC3}"/>
+    <hyperlink ref="B66" r:id="rId60" xr:uid="{6F7B1AD9-E3B9-41A7-9838-28B85A35C969}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51AFFCD-E230-4138-B337-F867FF19FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56E0A2-6F25-4C7F-8BB5-90F4B985D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="385">
   <si>
     <t>难度</t>
   </si>
@@ -1546,6 +1546,19 @@
   </si>
   <si>
     <t>math + 埃氏筛 + game theory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1256</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>math</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2022 December Contest, Silver
+Problem 3. Range Reconstruction</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3509,7 +3522,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4456,8 +4469,18 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
@@ -4546,8 +4569,9 @@
     <hyperlink ref="B64" r:id="rId58" xr:uid="{ECDFDE85-2013-4416-9AF3-17DDF2459773}"/>
     <hyperlink ref="B65" r:id="rId59" xr:uid="{6D0A85E1-80A6-4A87-8E07-3A22EAC36CC3}"/>
     <hyperlink ref="B66" r:id="rId60" xr:uid="{6F7B1AD9-E3B9-41A7-9838-28B85A35C969}"/>
+    <hyperlink ref="B67" r:id="rId61" xr:uid="{3166B381-B70F-42C3-BD3E-FD00A56B4FB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56E0A2-6F25-4C7F-8BB5-90F4B985D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3778E5-0353-4FAC-89FD-D72F40413BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="391">
   <si>
     <t>难度</t>
   </si>
@@ -1559,6 +1559,31 @@
   <si>
     <t>USACO 2022 December Contest, Silver
 Problem 3. Range Reconstruction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 December Contest, Silver
+Problem 1. Closest Cow Wins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1158</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority queue + greedy + sliding window</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 December Contest, Silver
+Problem 3. Convoluted Intervals</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1160</t>
+  </si>
+  <si>
+    <t>difference</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3521,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4483,12 +4508,32 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -4570,8 +4615,9 @@
     <hyperlink ref="B65" r:id="rId59" xr:uid="{6D0A85E1-80A6-4A87-8E07-3A22EAC36CC3}"/>
     <hyperlink ref="B66" r:id="rId60" xr:uid="{6F7B1AD9-E3B9-41A7-9838-28B85A35C969}"/>
     <hyperlink ref="B67" r:id="rId61" xr:uid="{3166B381-B70F-42C3-BD3E-FD00A56B4FB0}"/>
+    <hyperlink ref="B68" r:id="rId62" xr:uid="{8C93E465-49BB-4CA8-BD9E-E84D16BE7D1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3778E5-0353-4FAC-89FD-D72F40413BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE02CAA-2DEF-4B0C-A7F2-C2F65AD45D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="19200" windowHeight="11290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="402">
   <si>
     <t>难度</t>
   </si>
@@ -1584,6 +1584,55 @@
   </si>
   <si>
     <t>difference</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1112</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 February Contest, Silver
+Problem 3. Just Green Enough</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 December Contest, Silver
+Problem 2. Rectangular Pasture</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1063</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D-array + lr-optimization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1064</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 December Contest, Silver
+Problem 3. Stuck in a Rut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D-array + sort + topological</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1086</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USACO 2021 January Contest, Silver
+Problem 1. Dance Mooves</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>union find + graph</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3546,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4536,20 +4585,60 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>401</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4616,8 +4705,12 @@
     <hyperlink ref="B66" r:id="rId60" xr:uid="{6F7B1AD9-E3B9-41A7-9838-28B85A35C969}"/>
     <hyperlink ref="B67" r:id="rId61" xr:uid="{3166B381-B70F-42C3-BD3E-FD00A56B4FB0}"/>
     <hyperlink ref="B68" r:id="rId62" xr:uid="{8C93E465-49BB-4CA8-BD9E-E84D16BE7D1F}"/>
+    <hyperlink ref="B70" r:id="rId63" xr:uid="{569C59C3-4089-4A04-97DA-5CC1DCCA2C7A}"/>
+    <hyperlink ref="B71" r:id="rId64" xr:uid="{BE8B8CA2-3545-4934-BAD8-4B88C1679CA9}"/>
+    <hyperlink ref="B72" r:id="rId65" xr:uid="{DE78878E-2449-4C99-B65E-16394C4046C4}"/>
+    <hyperlink ref="B73" r:id="rId66" xr:uid="{3CD5BEB9-81D1-4D5C-AB31-CFEC3E5BB117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE02CAA-2DEF-4B0C-A7F2-C2F65AD45D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073AC19-206A-4F3A-8C1D-D84FFBDD05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="408">
   <si>
     <t>难度</t>
   </si>
@@ -1633,6 +1633,32 @@
   </si>
   <si>
     <t>union find + graph</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 January Contest, Silver
+Problem 2. No Time to Paint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1087</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix + suffix</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2021 January Contest, Silver
+Problem 3. Spaced Out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1088</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D-array + restriction help</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3593,10 +3619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4638,6 +4664,34 @@
       </c>
       <c r="D73" s="4" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4709,8 +4763,10 @@
     <hyperlink ref="B71" r:id="rId64" xr:uid="{BE8B8CA2-3545-4934-BAD8-4B88C1679CA9}"/>
     <hyperlink ref="B72" r:id="rId65" xr:uid="{DE78878E-2449-4C99-B65E-16394C4046C4}"/>
     <hyperlink ref="B73" r:id="rId66" xr:uid="{3CD5BEB9-81D1-4D5C-AB31-CFEC3E5BB117}"/>
+    <hyperlink ref="B74" r:id="rId67" xr:uid="{A5852BF4-20E5-4D13-9B3A-1546F21FDB8F}"/>
+    <hyperlink ref="B75" r:id="rId68" xr:uid="{C83E53CF-581E-4989-9670-166A6B55D15D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073AC19-206A-4F3A-8C1D-D84FFBDD05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF58BA-54D1-4159-B174-67984D387F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="411">
   <si>
     <t>难度</t>
   </si>
@@ -1659,6 +1659,19 @@
   </si>
   <si>
     <t>2D-array + restriction help</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 February Contest, Silver
+Problem 1. Swapity Swapity Swap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick power</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3619,9 +3632,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -4653,7 +4666,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -4667,7 +4680,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -4681,7 +4694,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="6" t="s">
         <v>405</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4692,6 +4705,20 @@
       </c>
       <c r="D75" s="4" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4765,8 +4792,9 @@
     <hyperlink ref="B73" r:id="rId66" xr:uid="{3CD5BEB9-81D1-4D5C-AB31-CFEC3E5BB117}"/>
     <hyperlink ref="B74" r:id="rId67" xr:uid="{A5852BF4-20E5-4D13-9B3A-1546F21FDB8F}"/>
     <hyperlink ref="B75" r:id="rId68" xr:uid="{C83E53CF-581E-4989-9670-166A6B55D15D}"/>
+    <hyperlink ref="B76" r:id="rId69" xr:uid="{7870CE6A-22AF-4670-AC04-78F36F5CB777}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF58BA-54D1-4159-B174-67984D387F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB940A68-40C9-4316-BAF9-C1DDF3B5D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="417">
   <si>
     <t>难度</t>
   </si>
@@ -1672,6 +1672,32 @@
   </si>
   <si>
     <t>quick power</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 February Contest, Silver
+Problem 3. Clock Tree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph + dfs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USACO 2020 February Contest, Silver
+Problem 2. Triangles</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometry</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3632,10 +3658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4719,6 +4745,34 @@
       </c>
       <c r="D76" s="4" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4793,8 +4847,10 @@
     <hyperlink ref="B74" r:id="rId67" xr:uid="{A5852BF4-20E5-4D13-9B3A-1546F21FDB8F}"/>
     <hyperlink ref="B75" r:id="rId68" xr:uid="{C83E53CF-581E-4989-9670-166A6B55D15D}"/>
     <hyperlink ref="B76" r:id="rId69" xr:uid="{7870CE6A-22AF-4670-AC04-78F36F5CB777}"/>
+    <hyperlink ref="B78" r:id="rId70" xr:uid="{553C07CA-37E1-4150-AB44-FFD14C91DF97}"/>
+    <hyperlink ref="B77" r:id="rId71" xr:uid="{2140A4D6-0FAC-42A7-9C3F-6248A6B05DA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB940A68-40C9-4316-BAF9-C1DDF3B5D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33590583-826D-458E-80DD-AA7D7D6640E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="416">
   <si>
     <t>难度</t>
   </si>
@@ -783,10 +783,6 @@
     <t xml:space="preserve">
 USACO 2020 January Contest, Silver
 Problem 1. Berry Picking</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2219,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2227,13 +2223,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2247,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -2264,7 +2260,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
@@ -2298,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
@@ -2315,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2346,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2383,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -2437,7 +2433,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T15" s="4">
         <v>1</v>
@@ -2454,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -2474,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -2491,7 +2487,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2508,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,7 +2518,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2539,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2556,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2573,7 +2569,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2599,7 +2595,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -2622,7 +2618,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2659,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2679,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -2736,7 +2732,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2759,7 +2755,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2782,7 +2778,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2822,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2842,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2862,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
@@ -2882,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K38" s="4">
         <v>1</v>
@@ -2902,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2933,7 +2929,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -2953,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="4">
         <v>1</v>
@@ -2970,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U43" s="4">
         <v>1</v>
@@ -2987,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -3007,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -3030,7 +3026,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -3050,7 +3046,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M47" s="4">
         <v>1</v>
@@ -3067,7 +3063,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -3087,7 +3083,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I49" s="4">
         <v>1</v>
@@ -3107,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
@@ -3130,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P51" s="4">
         <v>1</v>
@@ -3147,7 +3143,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
@@ -3184,7 +3180,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
@@ -3201,7 +3197,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I55" s="4">
         <v>1</v>
@@ -3221,7 +3217,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I56" s="4">
         <v>1</v>
@@ -3255,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
@@ -3295,7 +3291,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -3332,7 +3328,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I62" s="4">
         <v>1</v>
@@ -3349,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -3369,7 +3365,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -3487,7 +3483,7 @@
         <v>33</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -3507,7 +3503,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -3530,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G71" s="4">
         <v>1</v>
@@ -3547,7 +3543,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -3567,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -3660,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3691,7 +3687,7 @@
         <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3859,7 +3855,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3915,29 +3911,29 @@
         <v>199</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>200</v>
@@ -3948,122 +3944,122 @@
     </row>
     <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>200</v>
@@ -4074,377 +4070,377 @@
     </row>
     <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>200</v>
@@ -4455,324 +4451,324 @@
     </row>
     <row r="56" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/usaco.xlsx
+++ b/usaco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cpp\usaco_cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33590583-826D-458E-80DD-AA7D7D6640E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7168E70B-A9C3-487D-8640-170109DD6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bronze" sheetId="1" r:id="rId1"/>
@@ -775,9 +775,6 @@
   <si>
     <t>几何</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://usaco.org/index.php?page=viewproblem2&amp;cpid=990</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1576,9 +1573,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1160</t>
-  </si>
-  <si>
     <t>difference</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1694,6 +1688,14 @@
   </si>
   <si>
     <t>geometry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://usaco.org/index.php?page=viewproblem2&amp;cpid=990</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://usaco.org/index.php?page=viewproblem2&amp;cpid=1160</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2118,19 +2120,19 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="5" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2215,24 +2217,24 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>109</v>
       </c>
@@ -2243,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2260,13 +2262,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2294,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2311,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2351,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2379,13 +2381,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2433,13 +2435,13 @@
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2450,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
@@ -2459,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2470,13 +2472,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2487,13 +2489,13 @@
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2504,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2518,13 +2520,13 @@
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2535,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -2552,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -2584,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -2607,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2627,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2664,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -2684,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2744,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
@@ -2755,7 +2757,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2767,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2790,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2827,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2847,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>86</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
@@ -2867,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>88</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K38" s="4">
         <v>1</v>
@@ -2887,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>90</v>
       </c>
@@ -2898,10 +2900,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>94</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -2938,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -2949,13 +2951,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -2966,13 +2968,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U43" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -2992,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -3015,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -3035,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -3046,13 +3048,13 @@
         <v>33</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>114</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -3072,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>116</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I49" s="4">
         <v>1</v>
@@ -3092,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>119</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
@@ -3115,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -3126,13 +3128,13 @@
         <v>4</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P51" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>124</v>
       </c>
@@ -3143,13 +3145,13 @@
         <v>33</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
@@ -3180,13 +3182,13 @@
         <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I54" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I55" s="4">
         <v>1</v>
@@ -3206,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>133</v>
       </c>
@@ -3217,13 +3219,13 @@
         <v>33</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I56" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -3251,13 +3253,13 @@
         <v>2</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>139</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
@@ -3300,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>143</v>
       </c>
@@ -3317,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>145</v>
       </c>
@@ -3328,13 +3330,13 @@
         <v>33</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I62" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>147</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -3354,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>149</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
@@ -3374,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>151</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>156</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>157</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>33</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -3492,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>161</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -3515,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>163</v>
       </c>
@@ -3526,13 +3528,13 @@
         <v>2</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G71" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>165</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -3552,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>168</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -3656,24 +3658,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204EDAC-36DE-45DA-9D05-C0DF780A7104}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="56.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.75" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.9140625" style="4"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.77734375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3687,10 +3689,10 @@
         <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>169</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>177</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>183</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>189</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -3855,10 +3857,10 @@
         <v>200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>193</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -3900,40 +3902,40 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>213</v>
+        <v>414</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>200</v>
@@ -3942,124 +3944,124 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>200</v>
@@ -4068,379 +4070,379 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="B51" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>200</v>
@@ -4449,326 +4451,326 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="B69" s="3" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="B70" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="B72" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="B73" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4845,8 +4847,10 @@
     <hyperlink ref="B76" r:id="rId69" xr:uid="{7870CE6A-22AF-4670-AC04-78F36F5CB777}"/>
     <hyperlink ref="B78" r:id="rId70" xr:uid="{553C07CA-37E1-4150-AB44-FFD14C91DF97}"/>
     <hyperlink ref="B77" r:id="rId71" xr:uid="{2140A4D6-0FAC-42A7-9C3F-6248A6B05DA6}"/>
+    <hyperlink ref="B17" r:id="rId72" xr:uid="{B85E66CA-24B3-49C6-B7FC-D108D4241364}"/>
+    <hyperlink ref="B69" r:id="rId73" xr:uid="{4002BF07-8206-4F8F-A66A-6650EBEBF7FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>